--- a/socialstyrelsen/statistik-covid19-inskrivna_2020-11-30.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2020-11-30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekt\Covid19_intensivvard\Upprepade leveranser\Output\Arbetsmapp\MALL_UT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="283">
   <si>
     <t>Diabetes</t>
   </si>
@@ -996,33 +996,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
-  </si>
-  <si>
     <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
   </si>
   <si>
@@ -1165,6 +1138,33 @@
   </si>
   <si>
     <t>IU</t>
+  </si>
+  <si>
+    <r>
+      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förekomma mer än ett.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förekomma mer än ett. </t>
   </si>
 </sst>
 </file>
@@ -1837,10 +1837,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="medium">
         <color theme="8"/>
       </top>
@@ -1850,10 +1850,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="medium">
         <color theme="8"/>
       </top>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2363,12 +2363,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2389,6 +2383,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2430,58 +2434,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2511,11 +2464,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2568,10 +2572,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2580,7 +2587,10 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2589,29 +2599,12 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Diagramrubrik" xfId="17"/>
@@ -7440,86 +7433,86 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="175" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="177"/>
+      <c r="B3" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="181" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="183"/>
+      <c r="B4" s="183" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="181" t="str">
+      <c r="B5" s="183" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="181" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
+      <c r="B6" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="180" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="182"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
     </row>
     <row r="11" spans="2:6" ht="133.9" customHeight="1" thickBot="1">
-      <c r="B11" s="172" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="174"/>
+      <c r="B11" s="174" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="20"/>
@@ -7540,11 +7533,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8069,7 +8062,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="209" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -8083,24 +8076,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="187"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="184" t="s">
+      <c r="D14" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="207" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="187"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="185"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="208"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="121" t="s">
@@ -8116,20 +8109,20 @@
       <c r="B17" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="193"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="120"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="192"/>
+      <c r="D18" s="213"/>
       <c r="E18" s="120"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8346,16 +8339,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="211" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="190" t="s">
+      <c r="D39" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="190" t="s">
+      <c r="E39" s="212" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8363,45 +8356,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="189"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="189"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="189"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="189"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8433,20 +8426,20 @@
     <row r="46" spans="2:6">
       <c r="B46" s="197"/>
       <c r="C46" s="197"/>
-      <c r="D46" s="191" t="s">
+      <c r="D46" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="191" t="s">
+      <c r="E46" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="191"/>
+      <c r="F46" s="198"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="197"/>
       <c r="C47" s="197"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8460,16 +8453,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="202" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="198" t="s">
+      <c r="D49" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="198" t="s">
+      <c r="E49" s="204" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8477,7 +8470,7 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="189"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
@@ -8486,7 +8479,7 @@
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="189"/>
+      <c r="B51" s="203"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
@@ -8495,7 +8488,7 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="189"/>
+      <c r="B52" s="203"/>
       <c r="C52" s="8" t="s">
         <v>226</v>
       </c>
@@ -8552,46 +8545,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="199" t="s">
+      <c r="B57" s="205" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="201" t="s">
+      <c r="D57" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="201" t="s">
+      <c r="E57" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="194"/>
+      <c r="F57" s="201"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="200"/>
+      <c r="B58" s="196"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="191"/>
-      <c r="E58" s="191"/>
-      <c r="F58" s="195"/>
+      <c r="D58" s="198"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="186"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="200"/>
+      <c r="B59" s="196"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="191"/>
-      <c r="E59" s="191"/>
-      <c r="F59" s="195"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="186"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="200"/>
+      <c r="B60" s="196"/>
       <c r="C60" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="195"/>
+      <c r="D60" s="198"/>
+      <c r="E60" s="198"/>
+      <c r="F60" s="186"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8607,22 +8600,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="200"/>
+      <c r="B62" s="196"/>
       <c r="C62" s="197"/>
-      <c r="D62" s="191" t="s">
+      <c r="D62" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="191" t="s">
+      <c r="E62" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="195"/>
+      <c r="F62" s="186"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="200"/>
+      <c r="B63" s="196"/>
       <c r="C63" s="197"/>
-      <c r="D63" s="191"/>
-      <c r="E63" s="191"/>
-      <c r="F63" s="195"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="198"/>
+      <c r="F63" s="186"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -8758,47 +8751,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
+      <c r="C78" s="194"/>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="206" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="206"/>
-      <c r="D79" s="206"/>
+      <c r="B79" s="191" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="191"/>
+      <c r="D79" s="191"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="205" t="s">
+      <c r="C80" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="205"/>
+      <c r="D80" s="190"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="207" t="s">
+      <c r="C81" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="207"/>
+      <c r="D81" s="192"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="204" t="s">
+      <c r="C82" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="204"/>
+      <c r="D82" s="189"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -8813,34 +8806,34 @@
       <c r="C85" s="74"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="212" t="s">
+      <c r="B86" s="200" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="212"/>
-      <c r="D86" s="212"/>
+      <c r="C86" s="200"/>
+      <c r="D86" s="200"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="202" t="s">
+      <c r="B87" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="210" t="s">
+      <c r="C87" s="195" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="211" t="s">
+      <c r="D87" s="199" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="203"/>
-      <c r="C88" s="210"/>
-      <c r="D88" s="211"/>
+      <c r="B88" s="188"/>
+      <c r="C88" s="195"/>
+      <c r="D88" s="199"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C89" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D89">
         <v>47</v>
@@ -8851,7 +8844,7 @@
         <v>123</v>
       </c>
       <c r="C90" s="146" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D90">
         <v>47</v>
@@ -8862,7 +8855,7 @@
         <v>142</v>
       </c>
       <c r="C91" s="146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D91">
         <v>43</v>
@@ -8873,7 +8866,7 @@
         <v>124</v>
       </c>
       <c r="C92" s="146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D92">
         <v>47</v>
@@ -8884,7 +8877,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93">
         <v>47</v>
@@ -8895,7 +8888,7 @@
         <v>141</v>
       </c>
       <c r="C94" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="30">
         <v>47</v>
@@ -8906,7 +8899,7 @@
         <v>115</v>
       </c>
       <c r="C95" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="30">
         <v>47</v>
@@ -8917,7 +8910,7 @@
         <v>117</v>
       </c>
       <c r="C96" s="146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="30">
         <v>47</v>
@@ -8928,7 +8921,7 @@
         <v>116</v>
       </c>
       <c r="C97" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="30">
         <v>47</v>
@@ -8939,7 +8932,7 @@
         <v>127</v>
       </c>
       <c r="C98" s="146" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="30">
         <v>39</v>
@@ -8950,7 +8943,7 @@
         <v>118</v>
       </c>
       <c r="C99" s="146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="30">
         <v>47</v>
@@ -8961,7 +8954,7 @@
         <v>111</v>
       </c>
       <c r="C100" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="30">
         <v>47</v>
@@ -8972,7 +8965,7 @@
         <v>113</v>
       </c>
       <c r="C101" s="146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="30">
         <v>48</v>
@@ -8983,7 +8976,7 @@
         <v>112</v>
       </c>
       <c r="C102" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D102" s="30">
         <v>47</v>
@@ -8994,7 +8987,7 @@
         <v>120</v>
       </c>
       <c r="C103" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D103" s="30">
         <v>47</v>
@@ -9005,7 +8998,7 @@
         <v>126</v>
       </c>
       <c r="C104" s="146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D104" s="30">
         <v>47</v>
@@ -9016,7 +9009,7 @@
         <v>125</v>
       </c>
       <c r="C105" s="146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D105" s="30">
         <v>48</v>
@@ -9027,7 +9020,7 @@
         <v>122</v>
       </c>
       <c r="C106" s="146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D106" s="30">
         <v>47</v>
@@ -9038,7 +9031,7 @@
         <v>201</v>
       </c>
       <c r="C107" s="146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D107" s="30">
         <v>48</v>
@@ -9049,7 +9042,7 @@
         <v>121</v>
       </c>
       <c r="C108" s="146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D108" s="30">
         <v>47</v>
@@ -9060,7 +9053,7 @@
         <v>114</v>
       </c>
       <c r="C109" s="147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D109" s="148">
         <v>47</v>
@@ -9072,6 +9065,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9086,26 +9099,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9141,7 +9134,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9203,15 +9196,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="213" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
+      <c r="A2" s="215" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="77"/>
@@ -9242,29 +9235,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="216" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="216"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="222"/>
-      <c r="D7" s="220" t="s">
+      <c r="C7" s="224"/>
+      <c r="D7" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="219" t="s">
+      <c r="E7" s="223"/>
+      <c r="F7" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="219"/>
+      <c r="G7" s="221"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9364,43 +9357,43 @@
         <v>206</v>
       </c>
       <c r="B12" s="34">
-        <v>4021</v>
+        <v>4079</v>
       </c>
       <c r="C12" s="131">
-        <v>14.413736200000001</v>
+        <v>14.6216439</v>
       </c>
       <c r="D12" s="34">
-        <v>2477</v>
+        <v>2511</v>
       </c>
       <c r="E12" s="54">
-        <v>15.986833600000001</v>
+        <v>16.206273400000001</v>
       </c>
       <c r="F12" s="34">
-        <v>1544</v>
+        <v>1568</v>
       </c>
       <c r="G12" s="54">
-        <v>12.448601099999999</v>
+        <v>12.642102700000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="130">
-        <v>2931</v>
+        <v>2943</v>
       </c>
       <c r="C13" s="133">
-        <v>10.506506099999999</v>
+        <v>10.549521500000001</v>
       </c>
       <c r="D13" s="130">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="E13" s="82">
-        <v>13.663353600000001</v>
+        <v>13.714986400000001</v>
       </c>
       <c r="F13" s="130">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="G13" s="83">
-        <v>6.5629283000000003</v>
+        <v>6.5951785999999997</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -9954,37 +9947,37 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="217"/>
-      <c r="C38" s="217"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="225"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="218" t="s">
+      <c r="A40" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10036,15 +10029,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="224" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
+      <c r="A2" s="226" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="77"/>
       <c r="I2" s="77"/>
     </row>
@@ -10053,30 +10046,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="226" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="226" t="s">
+      <c r="E5" s="229"/>
+      <c r="F5" s="228" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="227"/>
+      <c r="G5" s="229"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="228"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="220"/>
+      <c r="A6" s="230"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="229"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10113,10 +10106,10 @@
         <v>78.381187941355705</v>
       </c>
       <c r="F8" s="94">
-        <v>4021</v>
+        <v>4079</v>
       </c>
       <c r="G8" s="140">
-        <v>14.413736244040599</v>
+        <v>14.6216439043625</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10159,10 +10152,10 @@
         <v>75.955414012738899</v>
       </c>
       <c r="F10" s="115">
-        <v>1689</v>
+        <v>1715</v>
       </c>
       <c r="G10" s="139">
-        <v>15.820532034469799</v>
+        <v>16.064068939677799</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10182,10 +10175,10 @@
         <v>79.331837447020703</v>
       </c>
       <c r="F11" s="115">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="G11" s="139">
-        <v>14.0114684617302</v>
+        <v>14.310645724258301</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10228,10 +10221,10 @@
         <v>77.351247600767806</v>
       </c>
       <c r="F13" s="115">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G13" s="139">
-        <v>10.684580934101101</v>
+        <v>10.940499040307101</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10251,10 +10244,10 @@
         <v>82.533589251439594</v>
       </c>
       <c r="F14" s="115">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="139">
-        <v>11.900191938579701</v>
+        <v>11.996161228406899</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10274,10 +10267,10 @@
         <v>77.910447761194106</v>
       </c>
       <c r="F15" s="115">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15" s="139">
-        <v>15.920398009950301</v>
+        <v>16.119402985074601</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10320,10 +10313,10 @@
         <v>83.3333333333334</v>
       </c>
       <c r="F17" s="115">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" s="139">
-        <v>12.368972746331201</v>
+        <v>12.4737945492662</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10343,10 +10336,10 @@
         <v>72.151898734177195</v>
       </c>
       <c r="F18" s="115">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="139">
-        <v>11.6455696202532</v>
+        <v>11.8987341772152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10366,10 +10359,10 @@
         <v>86.827956989247298</v>
       </c>
       <c r="F19" s="115">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G19" s="139">
-        <v>10.3494623655914</v>
+        <v>10.752688172042999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10412,10 +10405,10 @@
         <v>78.693623639191301</v>
       </c>
       <c r="F21" s="115">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="139">
-        <v>18.040435458786899</v>
+        <v>18.195956454121301</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10458,10 +10451,10 @@
         <v>65.874730021598296</v>
       </c>
       <c r="F23" s="115">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" s="139">
-        <v>15.334773218142599</v>
+        <v>15.7667386609071</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10481,10 +10474,10 @@
         <v>81.481481481481495</v>
       </c>
       <c r="F24" s="115">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G24" s="139">
-        <v>10.617283950617299</v>
+        <v>11.358024691358001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10527,10 +10520,10 @@
         <v>67.581047381546099</v>
       </c>
       <c r="F26" s="115">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="139">
-        <v>19.950124688279299</v>
+        <v>20.1995012468828</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10579,7 +10572,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="34">
         <v>169</v>
@@ -10601,32 +10594,32 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="165">
+      <c r="B30" s="163">
         <v>33</v>
       </c>
-      <c r="C30" s="166">
+      <c r="C30" s="164">
         <v>0.11829228949348999</v>
       </c>
-      <c r="D30" s="167">
+      <c r="D30" s="165">
         <v>29</v>
       </c>
-      <c r="E30" s="168">
+      <c r="E30" s="166">
         <v>87.878787878787904</v>
       </c>
-      <c r="F30" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="170"/>
+      <c r="F30" s="167" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="48" t="s">
@@ -10643,13 +10636,13 @@
       <c r="C33" s="81"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="225"/>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
+      <c r="A34" s="227"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10691,19 +10684,20 @@
       <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:79" ht="30" customHeight="1">
-      <c r="A2" s="213" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
+      <c r="A2" s="215" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
+      <c r="BF2" s="30"/>
     </row>
     <row r="3" spans="1:79">
       <c r="A3" s="61"/>
@@ -10729,250 +10723,250 @@
     </row>
     <row r="5" spans="1:79" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="214" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="215"/>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="215"/>
-      <c r="AE5" s="215"/>
-      <c r="AF5" s="215"/>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="215"/>
-      <c r="AJ5" s="215"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="215"/>
-      <c r="AM5" s="215"/>
-      <c r="AN5" s="215"/>
-      <c r="AO5" s="215"/>
-      <c r="AP5" s="215"/>
-      <c r="AQ5" s="215"/>
-      <c r="AR5" s="215"/>
-      <c r="AS5" s="215"/>
-      <c r="AT5" s="215"/>
-      <c r="AU5" s="215"/>
-      <c r="AV5" s="215"/>
-      <c r="AW5" s="215"/>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="215"/>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="238"/>
-      <c r="BE5" s="238"/>
-      <c r="BF5" s="238"/>
-      <c r="BG5" s="238"/>
-      <c r="BH5" s="238"/>
-      <c r="BI5" s="238"/>
-      <c r="BJ5" s="238"/>
-      <c r="BK5" s="238"/>
-      <c r="BL5" s="239" t="s">
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="217"/>
+      <c r="AI5" s="217"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="217"/>
+      <c r="AN5" s="217"/>
+      <c r="AO5" s="217"/>
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="217"/>
+      <c r="AR5" s="217"/>
+      <c r="AS5" s="217"/>
+      <c r="AT5" s="217"/>
+      <c r="AU5" s="217"/>
+      <c r="AV5" s="217"/>
+      <c r="AW5" s="217"/>
+      <c r="AX5" s="217"/>
+      <c r="AY5" s="217"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="217"/>
+      <c r="BB5" s="217"/>
+      <c r="BC5" s="217"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="169"/>
+      <c r="BH5" s="169"/>
+      <c r="BI5" s="169"/>
+      <c r="BJ5" s="169"/>
+      <c r="BK5" s="170"/>
+      <c r="BL5" s="232" t="s">
         <v>195</v>
       </c>
-      <c r="BM5" s="234"/>
-      <c r="BN5" s="234"/>
-      <c r="BO5" s="234"/>
-      <c r="BP5" s="234"/>
-      <c r="BQ5" s="234"/>
-      <c r="BR5" s="234"/>
-      <c r="BS5" s="234"/>
-      <c r="BT5" s="234"/>
-      <c r="BU5" s="234"/>
-      <c r="BV5" s="234"/>
-      <c r="BW5" s="234"/>
-      <c r="BX5" s="234"/>
-      <c r="BY5" s="234"/>
-      <c r="BZ5" s="234"/>
-      <c r="CA5" s="241"/>
+      <c r="BM5" s="233"/>
+      <c r="BN5" s="233"/>
+      <c r="BO5" s="233"/>
+      <c r="BP5" s="233"/>
+      <c r="BQ5" s="233"/>
+      <c r="BR5" s="233"/>
+      <c r="BS5" s="233"/>
+      <c r="BT5" s="233"/>
+      <c r="BU5" s="233"/>
+      <c r="BV5" s="233"/>
+      <c r="BW5" s="233"/>
+      <c r="BX5" s="233"/>
+      <c r="BY5" s="233"/>
+      <c r="BZ5" s="233"/>
+      <c r="CA5" s="234"/>
     </row>
     <row r="6" spans="1:79" ht="13.5" customHeight="1">
-      <c r="A6" s="228"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="230" t="s">
+      <c r="A6" s="230"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="230" t="s">
+      <c r="E6" s="238"/>
+      <c r="F6" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="230" t="s">
+      <c r="G6" s="238"/>
+      <c r="H6" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="231"/>
-      <c r="J6" s="230" t="s">
+      <c r="I6" s="238"/>
+      <c r="J6" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="231"/>
-      <c r="L6" s="230" t="s">
+      <c r="K6" s="238"/>
+      <c r="L6" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="230" t="s">
+      <c r="M6" s="238"/>
+      <c r="N6" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="231"/>
-      <c r="P6" s="230" t="s">
+      <c r="O6" s="238"/>
+      <c r="P6" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="230" t="s">
+      <c r="Q6" s="238"/>
+      <c r="R6" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="231"/>
-      <c r="T6" s="230" t="s">
+      <c r="S6" s="238"/>
+      <c r="T6" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="U6" s="231"/>
-      <c r="V6" s="230" t="s">
+      <c r="U6" s="238"/>
+      <c r="V6" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="231"/>
-      <c r="X6" s="230" t="s">
+      <c r="W6" s="238"/>
+      <c r="X6" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" s="231"/>
-      <c r="Z6" s="230" t="s">
+      <c r="Y6" s="238"/>
+      <c r="Z6" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="AA6" s="231"/>
-      <c r="AB6" s="230" t="s">
+      <c r="AA6" s="238"/>
+      <c r="AB6" s="237" t="s">
         <v>202</v>
       </c>
-      <c r="AC6" s="231"/>
-      <c r="AD6" s="230" t="s">
+      <c r="AC6" s="238"/>
+      <c r="AD6" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="AE6" s="231"/>
-      <c r="AF6" s="230" t="s">
+      <c r="AE6" s="238"/>
+      <c r="AF6" s="237" t="s">
         <v>231</v>
       </c>
-      <c r="AG6" s="231"/>
-      <c r="AH6" s="230" t="s">
+      <c r="AG6" s="238"/>
+      <c r="AH6" s="237" t="s">
         <v>235</v>
       </c>
-      <c r="AI6" s="231"/>
-      <c r="AJ6" s="230" t="s">
+      <c r="AI6" s="238"/>
+      <c r="AJ6" s="237" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK6" s="238"/>
+      <c r="AL6" s="237" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM6" s="238"/>
+      <c r="AN6" s="237" t="s">
         <v>244</v>
       </c>
-      <c r="AK6" s="231"/>
-      <c r="AL6" s="230" t="s">
+      <c r="AO6" s="238"/>
+      <c r="AP6" s="237" t="s">
         <v>245</v>
       </c>
-      <c r="AM6" s="231"/>
-      <c r="AN6" s="230" t="s">
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="AO6" s="231"/>
-      <c r="AP6" s="230" t="s">
+      <c r="AS6" s="238"/>
+      <c r="AT6" s="237" t="s">
         <v>247</v>
       </c>
-      <c r="AQ6" s="231"/>
-      <c r="AR6" s="230" t="s">
+      <c r="AU6" s="238"/>
+      <c r="AV6" s="237" t="s">
         <v>248</v>
       </c>
-      <c r="AS6" s="231"/>
-      <c r="AT6" s="230" t="s">
+      <c r="AW6" s="238"/>
+      <c r="AX6" s="237" t="s">
         <v>249</v>
       </c>
-      <c r="AU6" s="231"/>
-      <c r="AV6" s="230" t="s">
+      <c r="AY6" s="238"/>
+      <c r="AZ6" s="237" t="s">
         <v>250</v>
       </c>
-      <c r="AW6" s="231"/>
-      <c r="AX6" s="230" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY6" s="231"/>
-      <c r="AZ6" s="230" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA6" s="236"/>
-      <c r="BB6" s="232" t="s">
+      <c r="BA6" s="240"/>
+      <c r="BB6" s="235" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC6" s="239"/>
+      <c r="BD6" s="235" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE6" s="236"/>
+      <c r="BF6" s="235" t="s">
         <v>255</v>
       </c>
-      <c r="BC6" s="235"/>
-      <c r="BD6" s="232" t="s">
+      <c r="BG6" s="236"/>
+      <c r="BH6" s="235" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI6" s="236"/>
+      <c r="BJ6" s="235" t="s">
         <v>256</v>
       </c>
-      <c r="BE6" s="233"/>
-      <c r="BF6" s="232" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG6" s="233"/>
-      <c r="BH6" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="BI6" s="233"/>
-      <c r="BJ6" s="232" t="s">
+      <c r="BK6" s="236"/>
+      <c r="BL6" s="235" t="s">
         <v>258</v>
       </c>
-      <c r="BK6" s="233"/>
-      <c r="BL6" s="232" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM6" s="233"/>
-      <c r="BN6" s="232" t="s">
-        <v>264</v>
-      </c>
-      <c r="BO6" s="233"/>
-      <c r="BP6" s="232" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ6" s="233"/>
-      <c r="BR6" s="232" t="s">
+      <c r="BM6" s="236"/>
+      <c r="BN6" s="235" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO6" s="236"/>
+      <c r="BP6" s="235" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ6" s="236"/>
+      <c r="BR6" s="235" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS6" s="236"/>
+      <c r="BT6" s="235" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU6" s="236"/>
+      <c r="BV6" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="BS6" s="233"/>
-      <c r="BT6" s="232" t="s">
+      <c r="BW6" s="236"/>
+      <c r="BX6" s="235" t="s">
         <v>277</v>
       </c>
-      <c r="BU6" s="233"/>
-      <c r="BV6" s="232" t="s">
+      <c r="BY6" s="236"/>
+      <c r="BZ6" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="BW6" s="233"/>
-      <c r="BX6" s="232" t="s">
-        <v>279</v>
-      </c>
-      <c r="BY6" s="233"/>
-      <c r="BZ6" s="232" t="s">
-        <v>280</v>
-      </c>
-      <c r="CA6" s="233"/>
+      <c r="CA6" s="236"/>
     </row>
     <row r="7" spans="1:79">
-      <c r="A7" s="229"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -14111,52 +14105,52 @@
         <v>110</v>
       </c>
       <c r="BL20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BM20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BM20" s="101" t="s">
+        <v>280</v>
       </c>
       <c r="BN20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BO20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BO20" s="101" t="s">
+        <v>280</v>
       </c>
       <c r="BP20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BQ20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BQ20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BR20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BS20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BS20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BT20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BU20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BU20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BV20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BW20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BW20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BX20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="BY20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="BY20" s="172" t="s">
+        <v>280</v>
       </c>
       <c r="BZ20" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="CA20" s="240" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="CA20" s="172" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:79">
@@ -16073,7 +16067,7 @@
     </row>
     <row r="29" spans="1:79">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="34">
         <v>169</v>
@@ -16144,19 +16138,19 @@
       <c r="X29" s="92">
         <v>5</v>
       </c>
-      <c r="Y29" s="86">
+      <c r="Y29" s="156">
         <v>2.9585798816568101</v>
       </c>
       <c r="Z29" s="92">
         <v>10</v>
       </c>
-      <c r="AA29" s="86">
+      <c r="AA29" s="156">
         <v>5.9171597633136104</v>
       </c>
       <c r="AB29" s="92">
         <v>6</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="171">
         <v>3.55029585798817</v>
       </c>
       <c r="AD29" s="87">
@@ -16519,34 +16513,34 @@
         <v>110</v>
       </c>
       <c r="BR30" s="88" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="BS30" s="105" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="BT30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BU30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BV30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BW30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BX30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BY30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:79" ht="15.75" customHeight="1" thickTop="1">
@@ -16651,26 +16645,13 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BL5:CA5"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D5:BC5"/>
     <mergeCell ref="BJ6:BK6"/>
     <mergeCell ref="BL6:BM6"/>
     <mergeCell ref="BN6:BO6"/>
@@ -16687,13 +16668,26 @@
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D5:BC5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="BL5:CA5"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16703,7 +16697,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB37"/>
+  <dimension ref="A1:CA37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -16714,23 +16708,23 @@
     <col min="34" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:79" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:80" ht="46.5" customHeight="1">
-      <c r="A2" s="224" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-    </row>
-    <row r="3" spans="1:80">
+    <row r="2" spans="1:79" ht="46.5" customHeight="1">
+      <c r="A2" s="226" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+    </row>
+    <row r="3" spans="1:79">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -16741,274 +16735,255 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:80" ht="14.25" thickBot="1">
+    <row r="4" spans="1:79" ht="14.25" thickBot="1">
       <c r="A4" s="116"/>
-      <c r="BJ4" s="245"/>
-      <c r="BK4" s="245"/>
-      <c r="BL4" s="245"/>
-      <c r="BM4" s="245"/>
-      <c r="BN4" s="245"/>
-      <c r="BO4" s="245"/>
-      <c r="BP4" s="245"/>
-      <c r="BQ4" s="245"/>
-      <c r="BR4" s="245"/>
-      <c r="BS4" s="245"/>
-      <c r="BT4" s="245"/>
-      <c r="BU4" s="245"/>
-      <c r="BV4" s="245"/>
-      <c r="BW4" s="245"/>
-      <c r="BX4" s="245"/>
-      <c r="BY4" s="245"/>
-      <c r="BZ4" s="245"/>
-      <c r="CA4" s="245"/>
-    </row>
-    <row r="5" spans="1:80" ht="28.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:79" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="228" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="161" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="162"/>
-      <c r="AP5" s="162"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="162"/>
-      <c r="AS5" s="162"/>
-      <c r="AT5" s="162"/>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="162"/>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="162"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="162"/>
-      <c r="BA5" s="162"/>
-      <c r="BB5" s="162"/>
-      <c r="BC5" s="162"/>
-      <c r="BD5" s="162"/>
-      <c r="BE5" s="162"/>
-      <c r="BF5" s="162"/>
-      <c r="BG5" s="162"/>
-      <c r="BH5" s="162"/>
-      <c r="BI5" s="162"/>
-      <c r="BJ5" s="221" t="s">
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="217"/>
+      <c r="AI5" s="217"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="217"/>
+      <c r="AN5" s="217"/>
+      <c r="AO5" s="217"/>
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="217"/>
+      <c r="AR5" s="217"/>
+      <c r="AS5" s="217"/>
+      <c r="AT5" s="217"/>
+      <c r="AU5" s="217"/>
+      <c r="AV5" s="217"/>
+      <c r="AW5" s="217"/>
+      <c r="AX5" s="217"/>
+      <c r="AY5" s="217"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="217"/>
+      <c r="BB5" s="169"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="169"/>
+      <c r="BH5" s="169"/>
+      <c r="BI5" s="170"/>
+      <c r="BJ5" s="232" t="s">
         <v>204</v>
       </c>
-      <c r="BK5" s="244"/>
-      <c r="BL5" s="244"/>
-      <c r="BM5" s="244"/>
-      <c r="BN5" s="244"/>
-      <c r="BO5" s="244"/>
-      <c r="BP5" s="244"/>
-      <c r="BQ5" s="244"/>
-      <c r="BR5" s="244"/>
-      <c r="BS5" s="244"/>
-      <c r="BT5" s="244"/>
-      <c r="BU5" s="244"/>
-      <c r="BV5" s="244"/>
-      <c r="BW5" s="244"/>
-      <c r="BX5" s="244"/>
-      <c r="BY5" s="244"/>
-      <c r="BZ5" s="244"/>
-      <c r="CA5" s="220"/>
-      <c r="CB5" s="243"/>
-    </row>
-    <row r="6" spans="1:80" ht="13.5" customHeight="1">
-      <c r="A6" s="228"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="230" t="s">
+      <c r="BK5" s="233"/>
+      <c r="BL5" s="233"/>
+      <c r="BM5" s="233"/>
+      <c r="BN5" s="233"/>
+      <c r="BO5" s="233"/>
+      <c r="BP5" s="233"/>
+      <c r="BQ5" s="233"/>
+      <c r="BR5" s="233"/>
+      <c r="BS5" s="233"/>
+      <c r="BT5" s="233"/>
+      <c r="BU5" s="233"/>
+      <c r="BV5" s="233"/>
+      <c r="BW5" s="233"/>
+      <c r="BX5" s="233"/>
+      <c r="BY5" s="233"/>
+      <c r="BZ5" s="233"/>
+      <c r="CA5" s="241"/>
+    </row>
+    <row r="6" spans="1:79" ht="13.5" customHeight="1">
+      <c r="A6" s="230"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="230" t="s">
+      <c r="E6" s="238"/>
+      <c r="F6" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="230" t="s">
+      <c r="G6" s="238"/>
+      <c r="H6" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="231"/>
-      <c r="J6" s="230" t="s">
+      <c r="I6" s="238"/>
+      <c r="J6" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="231"/>
-      <c r="L6" s="230" t="s">
+      <c r="K6" s="238"/>
+      <c r="L6" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="231"/>
-      <c r="N6" s="230" t="s">
+      <c r="M6" s="238"/>
+      <c r="N6" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="231"/>
-      <c r="P6" s="230" t="s">
+      <c r="O6" s="238"/>
+      <c r="P6" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="230" t="s">
+      <c r="Q6" s="238"/>
+      <c r="R6" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="231"/>
-      <c r="T6" s="230" t="s">
+      <c r="S6" s="238"/>
+      <c r="T6" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="U6" s="231"/>
-      <c r="V6" s="230" t="s">
+      <c r="U6" s="238"/>
+      <c r="V6" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="W6" s="231"/>
-      <c r="X6" s="230" t="s">
+      <c r="W6" s="238"/>
+      <c r="X6" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="Y6" s="231"/>
-      <c r="Z6" s="230" t="s">
+      <c r="Y6" s="238"/>
+      <c r="Z6" s="237" t="s">
         <v>202</v>
       </c>
-      <c r="AA6" s="231"/>
-      <c r="AB6" s="230" t="s">
+      <c r="AA6" s="238"/>
+      <c r="AB6" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="AC6" s="231"/>
-      <c r="AD6" s="237" t="s">
+      <c r="AC6" s="238"/>
+      <c r="AD6" s="242" t="s">
         <v>231</v>
       </c>
-      <c r="AE6" s="231"/>
-      <c r="AF6" s="237" t="s">
+      <c r="AE6" s="238"/>
+      <c r="AF6" s="242" t="s">
         <v>235</v>
       </c>
-      <c r="AG6" s="231"/>
-      <c r="AH6" s="237" t="s">
+      <c r="AG6" s="238"/>
+      <c r="AH6" s="242" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI6" s="238"/>
+      <c r="AJ6" s="242" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK6" s="238"/>
+      <c r="AL6" s="242" t="s">
         <v>244</v>
       </c>
-      <c r="AI6" s="231"/>
-      <c r="AJ6" s="237" t="s">
+      <c r="AM6" s="238"/>
+      <c r="AN6" s="242" t="s">
         <v>245</v>
       </c>
-      <c r="AK6" s="231"/>
-      <c r="AL6" s="237" t="s">
+      <c r="AO6" s="238"/>
+      <c r="AP6" s="242" t="s">
         <v>246</v>
       </c>
-      <c r="AM6" s="231"/>
-      <c r="AN6" s="237" t="s">
+      <c r="AQ6" s="238"/>
+      <c r="AR6" s="242" t="s">
         <v>247</v>
       </c>
-      <c r="AO6" s="231"/>
-      <c r="AP6" s="237" t="s">
+      <c r="AS6" s="238"/>
+      <c r="AT6" s="242" t="s">
         <v>248</v>
       </c>
-      <c r="AQ6" s="231"/>
-      <c r="AR6" s="237" t="s">
+      <c r="AU6" s="238"/>
+      <c r="AV6" s="242" t="s">
         <v>249</v>
       </c>
-      <c r="AS6" s="231"/>
-      <c r="AT6" s="237" t="s">
+      <c r="AW6" s="238"/>
+      <c r="AX6" s="242" t="s">
         <v>250</v>
       </c>
-      <c r="AU6" s="231"/>
-      <c r="AV6" s="237" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW6" s="231"/>
-      <c r="AX6" s="237" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY6" s="231"/>
-      <c r="AZ6" s="237" t="s">
+      <c r="AY6" s="238"/>
+      <c r="AZ6" s="242" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA6" s="238"/>
+      <c r="BB6" s="242" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC6" s="238"/>
+      <c r="BD6" s="242" t="s">
         <v>255</v>
       </c>
-      <c r="BA6" s="231"/>
-      <c r="BB6" s="237" t="s">
+      <c r="BE6" s="238"/>
+      <c r="BF6" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG6" s="238"/>
+      <c r="BH6" s="242" t="s">
         <v>256</v>
       </c>
-      <c r="BC6" s="231"/>
-      <c r="BD6" s="237" t="s">
-        <v>257</v>
-      </c>
-      <c r="BE6" s="231"/>
-      <c r="BF6" s="237" t="s">
-        <v>259</v>
-      </c>
-      <c r="BG6" s="231"/>
-      <c r="BH6" s="237" t="s">
+      <c r="BI6" s="238"/>
+      <c r="BJ6" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="BI6" s="231"/>
-      <c r="BJ6" s="237" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK6" s="231"/>
-      <c r="BL6" s="237" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM6" s="231"/>
+      <c r="BK6" s="238"/>
+      <c r="BL6" s="242" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM6" s="238"/>
       <c r="BN6" s="242" t="s">
-        <v>265</v>
-      </c>
-      <c r="BO6" s="233"/>
+        <v>263</v>
+      </c>
+      <c r="BO6" s="238"/>
       <c r="BP6" s="242" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ6" s="238"/>
+      <c r="BR6" s="242" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS6" s="238"/>
+      <c r="BT6" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="BQ6" s="233"/>
-      <c r="BR6" s="242" t="s">
+      <c r="BU6" s="238"/>
+      <c r="BV6" s="242" t="s">
         <v>277</v>
       </c>
-      <c r="BS6" s="233"/>
-      <c r="BT6" s="242" t="s">
+      <c r="BW6" s="238"/>
+      <c r="BX6" s="242" t="s">
         <v>278</v>
       </c>
-      <c r="BU6" s="233"/>
-      <c r="BV6" s="242" t="s">
+      <c r="BY6" s="238"/>
+      <c r="BZ6" s="242" t="s">
         <v>279</v>
       </c>
-      <c r="BW6" s="233"/>
-      <c r="BX6" s="242" t="s">
-        <v>280</v>
-      </c>
-      <c r="BY6" s="233"/>
-      <c r="BZ6" s="242" t="s">
-        <v>281</v>
-      </c>
-      <c r="CA6" s="233"/>
-    </row>
-    <row r="7" spans="1:80">
-      <c r="A7" s="229"/>
+      <c r="CA6" s="238"/>
+    </row>
+    <row r="7" spans="1:79">
+      <c r="A7" s="231"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -17244,7 +17219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:79">
       <c r="A8" s="63" t="s">
         <v>222</v>
       </c>
@@ -17483,246 +17458,90 @@
         <v>3.1830238726790498</v>
       </c>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:79">
       <c r="A9" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="95">
-        <v>0</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="66">
-        <v>0</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="66">
-        <v>0</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="66">
-        <v>0</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="66">
-        <v>0</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="66">
-        <v>0</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="66">
-        <v>0</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="66">
-        <v>0</v>
-      </c>
-      <c r="S9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" s="66">
-        <v>0</v>
-      </c>
-      <c r="U9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="66">
-        <v>0</v>
-      </c>
-      <c r="W9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" s="66">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX9" s="66">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX9" s="66">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ9" s="66">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80">
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="66"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="113"/>
+      <c r="BJ9" s="66"/>
+      <c r="BK9" s="113"/>
+      <c r="BL9" s="66"/>
+      <c r="BM9" s="113"/>
+      <c r="BN9" s="66"/>
+      <c r="BO9" s="113"/>
+      <c r="BP9" s="66"/>
+      <c r="BQ9" s="113"/>
+      <c r="BR9" s="66"/>
+      <c r="BS9" s="113"/>
+      <c r="BT9" s="66"/>
+      <c r="BU9" s="113"/>
+      <c r="BV9" s="66"/>
+      <c r="BW9" s="113"/>
+      <c r="BX9" s="66"/>
+      <c r="BY9" s="113"/>
+      <c r="BZ9" s="66"/>
+      <c r="CA9" s="113"/>
+    </row>
+    <row r="10" spans="1:79">
       <c r="A10" s="69" t="s">
         <v>111</v>
       </c>
@@ -17961,7 +17780,7 @@
         <v>2.8733505981008798</v>
       </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:79">
       <c r="A11" s="69" t="s">
         <v>201</v>
       </c>
@@ -18200,7 +18019,7 @@
         <v>4.9654305468258997</v>
       </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:79">
       <c r="A12" s="65" t="s">
         <v>118</v>
       </c>
@@ -18439,7 +18258,7 @@
         <v>1.8497109826589599</v>
       </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:79">
       <c r="A13" s="30" t="s">
         <v>114</v>
       </c>
@@ -18678,7 +18497,7 @@
         <v>5.3763440860215104</v>
       </c>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:79">
       <c r="A14" s="30" t="s">
         <v>115</v>
       </c>
@@ -18917,7 +18736,7 @@
         <v>3.13953488372093</v>
       </c>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:79">
       <c r="A15" s="30" t="s">
         <v>124</v>
       </c>
@@ -19156,7 +18975,7 @@
         <v>3.14465408805032</v>
       </c>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:79">
       <c r="A16" s="30" t="s">
         <v>112</v>
       </c>
@@ -20297,58 +20116,58 @@
         <v>1.08108108108108</v>
       </c>
       <c r="BJ20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BK20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BL20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BM20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BN20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BO20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BP20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BQ20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BR20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BS20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BT20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BU20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BV20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BW20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BX20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BY20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ20" s="112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA20" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:79">
@@ -22265,7 +22084,7 @@
     </row>
     <row r="29" spans="1:79">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="97">
         <v>136</v>
@@ -22711,34 +22530,34 @@
         <v>0</v>
       </c>
       <c r="BR30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BS30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BT30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BU30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BV30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BW30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BX30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BY30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ30" s="88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA30" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:79" ht="15.75" customHeight="1" thickTop="1">
@@ -22821,17 +22640,25 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="BJ5:CA5"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BN6:BO6"/>
+  <mergeCells count="43">
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
     <mergeCell ref="BH6:BI6"/>
     <mergeCell ref="BF6:BG6"/>
     <mergeCell ref="BD6:BE6"/>
@@ -22846,24 +22673,17 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="BJ5:CA5"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BN6:BO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22872,53 +22692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -23251,32 +23024,54 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23293,4 +23088,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>